--- a/xlsx/政治学 (亚里士多德)_intext.xlsx
+++ b/xlsx/政治学 (亚里士多德)_intext.xlsx
@@ -29,7 +29,7 @@
     <t>古希腊语</t>
   </si>
   <si>
-    <t>政策_政策_政治學_政治学 (亚里士多德)</t>
+    <t>政策_政策_政治学_政治学 (亚里士多德)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%9F%8E%E9%82%A6</t>
   </si>
   <si>
-    <t>希臘城邦</t>
+    <t>希腊城邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%94%BF</t>
   </si>
   <si>
-    <t>專政</t>
+    <t>专政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
